--- a/document/数据库/数据/t_teach_material .xlsx
+++ b/document/数据库/数据/t_teach_material .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>二等奖</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -465,190 +469,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="63" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>43041</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="90.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" ht="90.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>43041</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>43041</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>43041</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>43041</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>43041</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
         <v>43041</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="125.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" ht="125.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
         <v>42602</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1">
         <v>42602</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="63" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1">
         <v>42602</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1">
         <v>42602</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="63" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1">
         <v>42602</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1">
         <v>42602</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1">
         <v>42602</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1">
         <v>42602</v>
       </c>
     </row>
